--- a/PvA/Tijdplanning template.xlsx
+++ b/PvA/Tijdplanning template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a13bb690aaddd4f/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autoverhuur-Bob\PvA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Wie</t>
   </si>
@@ -50,61 +50,64 @@
     <t>Guido</t>
   </si>
   <si>
-    <t>Planing maken</t>
-  </si>
-  <si>
-    <t>30minuten</t>
-  </si>
-  <si>
-    <t>Ja/ Nee</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
     <t xml:space="preserve">Logo maken </t>
   </si>
   <si>
-    <t>2uur</t>
-  </si>
-  <si>
-    <t>ja/ Nee</t>
-  </si>
-  <si>
-    <t>Website maken</t>
-  </si>
-  <si>
-    <t>iedereen</t>
-  </si>
-  <si>
-    <t>10uur</t>
-  </si>
-  <si>
-    <t>19-12 -&gt; 9-12</t>
-  </si>
-  <si>
-    <t>Wireframe inlogpagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iedereen </t>
-  </si>
-  <si>
     <t>Wireframes maken</t>
   </si>
   <si>
-    <t>1uur</t>
-  </si>
-  <si>
-    <t>Wireframe mobiel maken</t>
-  </si>
-  <si>
-    <t>Ja / Nee</t>
-  </si>
-  <si>
-    <t>ja / Nee</t>
+    <t>Jelle</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Mock-ups afmaken</t>
+  </si>
+  <si>
+    <t>PvA</t>
+  </si>
+  <si>
+    <t>Home-pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Auto's pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Over pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Contact pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Inloggen pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Registreren pagina website afmaken</t>
+  </si>
+  <si>
+    <t>Groep</t>
+  </si>
+  <si>
+    <t>PvA laten goedkeuren</t>
+  </si>
+  <si>
+    <t>Website af</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,21 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -628,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,14 +667,14 @@
       </c>
       <c r="B1" s="9">
         <f xml:space="preserve"> SUM(C4:C1048576)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="10">
         <f>MAX(D4:D1048576)</f>
-        <v>42723</v>
+        <v>42772</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,150 +696,210 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
       </c>
       <c r="D4" s="13">
-        <v>42723</v>
+        <v>42751</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="16">
         <v>42723</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42751</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
       </c>
       <c r="D7" s="6">
-        <v>42723</v>
+        <v>42751</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6">
-        <v>42723</v>
+        <v>42751</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42758</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42758</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>42758</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42758</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42765</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6">
-        <v>42723</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42765</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42772</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -867,7 +944,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1063,23 +1140,40 @@
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:E50">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A4:E7 E9:E51">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E4 &gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:D51">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$E9 &gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:E8">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$E9 &gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
